--- a/merge/DataMigration - Commercial.xlsx
+++ b/merge/DataMigration - Commercial.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T966104\Documents\new_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T966104\Documents\repos\docs\syngenta-appmap\merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Transaction Data'!$A$2:$E$141</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -551,7 +550,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1769">
+  <dxfs count="1622">
     <dxf>
       <fill>
         <patternFill>
@@ -582,6 +581,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -616,6 +622,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -650,6 +683,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -684,6 +731,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -718,6 +792,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -752,6 +833,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -759,6 +867,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -800,6 +935,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -834,6 +976,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -868,6 +1037,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -902,6 +1078,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -909,6 +1112,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -936,6 +1146,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -970,6 +1187,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1004,6 +1248,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1038,6 +1289,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1045,6 +1323,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1072,6 +1357,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1106,6 +1398,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1140,6 +1459,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1174,6 +1500,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1181,6 +1534,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1208,6 +1568,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1242,6 +1609,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1276,6 +1670,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1344,6 +1745,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1378,6 +1786,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1412,6 +1847,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1480,6 +1922,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1514,6 +1963,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1548,6 +2024,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1616,6 +2099,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1650,6 +2140,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1684,6 +2201,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1752,6 +2276,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1786,6 +2317,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1820,6 +2378,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1861,6 +2426,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1868,6 +2460,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1902,6 +2521,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1936,6 +2562,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1943,6 +2596,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1970,6 +2630,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2004,6 +2671,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2038,6 +2732,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2106,6 +2807,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2140,6 +2848,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2174,6 +2909,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2242,6 +2984,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2276,6 +3025,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2310,6 +3086,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2378,6 +3161,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2412,6 +3202,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2446,6 +3263,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2514,6 +3338,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2548,6 +3379,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2582,6 +3440,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2650,6 +3515,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2684,6 +3556,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2718,6 +3617,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2786,6 +3692,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2820,6 +3733,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2854,6 +3794,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2895,6 +3842,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2902,6 +3876,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2936,6 +3937,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2970,6 +3978,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2977,6 +4012,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3004,6 +4046,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3038,6 +4087,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -3147,6 +4223,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3181,6 +4264,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -3392,6 +4502,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -3569,6 +4706,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3603,6 +4747,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -3712,6 +4883,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3814,6 +4992,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -4025,6 +5230,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -4202,6 +5434,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -4345,6 +5604,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4556,6 +5885,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -4597,6 +5953,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4733,6 +6096,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -4740,6 +6130,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4910,6 +6307,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -5087,6 +6511,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -5230,6 +6681,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -5264,6 +6722,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -5441,13 +6926,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -5469,2730 +6947,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -15798,10 +14552,10 @@
   <dimension ref="A1:H233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C135" sqref="C135"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -18007,7 +16761,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44 A37 E38 E41:E42 A38:D44">
+  <conditionalFormatting sqref="A37 E44 E38 E41:E42 A38:D44">
     <cfRule type="colorScale" priority="1727">
       <colorScale>
         <cfvo type="min"/>
@@ -21895,7 +20649,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A224 E231 E225 E228:E229 A225:D231">
+  <conditionalFormatting sqref="E231 A224 E225 E228:E229 A225:D231">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -34716,7 +33470,7 @@
   <dimension ref="A1:H395"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
@@ -51439,9 +50193,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51494,24 +50251,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB06F46-2324-4F19-BEF0-F8AF4A892011}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FADFE7A-42F0-49CE-85AD-FE8539B2D273}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -51532,9 +50280,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FADFE7A-42F0-49CE-85AD-FE8539B2D273}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB06F46-2324-4F19-BEF0-F8AF4A892011}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>